--- a/backend/Jungle_DB.xlsx
+++ b/backend/Jungle_DB.xlsx
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -373,13 +373,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +599,7 @@
     <col customWidth="1" min="3" max="3" width="31.29"/>
     <col customWidth="1" min="4" max="4" width="27.43"/>
     <col customWidth="1" min="5" max="5" width="18.43"/>
-    <col customWidth="1" min="6" max="8" width="8.71"/>
-    <col customWidth="1" min="9" max="9" width="39.71"/>
-    <col customWidth="1" min="10" max="10" width="12.71"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="23.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -624,669 +618,721 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>

--- a/backend/Jungle_DB.xlsx
+++ b/backend/Jungle_DB.xlsx
@@ -365,12 +365,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -615,10 +612,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -629,10 +626,10 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -643,10 +640,10 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -657,10 +654,10 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -671,10 +668,10 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -685,10 +682,10 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -699,10 +696,10 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -713,10 +710,10 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -727,10 +724,10 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -741,10 +738,10 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -755,10 +752,10 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -769,10 +766,10 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -783,10 +780,10 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -797,10 +794,10 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -811,10 +808,10 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -825,10 +822,10 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -839,10 +836,10 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -853,10 +850,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3"/>
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -867,10 +864,10 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -881,10 +878,10 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3"/>
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
@@ -895,10 +892,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3"/>
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -909,10 +906,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3"/>
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
@@ -923,10 +920,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
@@ -937,10 +934,10 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
+      <c r="E24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
@@ -951,10 +948,10 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
+      <c r="E25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
@@ -965,10 +962,10 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3"/>
+      <c r="E26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
@@ -979,10 +976,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3"/>
+      <c r="E27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
@@ -993,10 +990,10 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3"/>
+      <c r="E28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
@@ -1007,10 +1004,10 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3"/>
+      <c r="E29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
@@ -1021,10 +1018,10 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3"/>
+      <c r="E30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
@@ -1035,10 +1032,10 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3"/>
+      <c r="E31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
@@ -1049,10 +1046,10 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3"/>
+      <c r="E32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
@@ -1063,10 +1060,10 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3"/>
+      <c r="E33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
@@ -1077,10 +1074,10 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3"/>
+      <c r="E34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
@@ -1091,10 +1088,10 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
+      <c r="E35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
@@ -1105,10 +1102,10 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3"/>
+      <c r="E36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
@@ -1119,10 +1116,10 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+      <c r="E37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
@@ -1133,10 +1130,10 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
+      <c r="E38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
@@ -1147,10 +1144,10 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3"/>
+      <c r="E39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
@@ -1161,10 +1158,10 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3"/>
+      <c r="E40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
@@ -1175,10 +1172,10 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3"/>
+      <c r="E41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
@@ -1189,10 +1186,10 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3"/>
+      <c r="E42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
@@ -1203,10 +1200,10 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="E43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
@@ -1217,10 +1214,10 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3"/>
+      <c r="E44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
@@ -1231,10 +1228,10 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3"/>
+      <c r="E45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
@@ -1245,10 +1242,10 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3"/>
+      <c r="E46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
@@ -1259,10 +1256,10 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3"/>
+      <c r="E47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
@@ -1273,10 +1270,10 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3"/>
+      <c r="E48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
@@ -1287,10 +1284,10 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3"/>
+      <c r="E49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
@@ -1301,10 +1298,10 @@
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3"/>
+      <c r="E50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
@@ -1315,10 +1312,10 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3"/>
+      <c r="E51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
@@ -1329,10 +1326,10 @@
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3"/>
+      <c r="E52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>
